--- a/rtdf/deepnote/bdd/audios_datos_ingesta.xlsx
+++ b/rtdf/deepnote/bdd/audios_datos_ingesta.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -810,6 +810,158 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Cesar Burgos</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>cesar_burgos_20240820_132751.mp3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>45524.625</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>60</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>131.1</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>506.0</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1139.5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2443.4</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>3237.6</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>57.64</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0.014117</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0.084405</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0.823334</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Cesar Burgos</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>cesar_burgos_20240820_133237.mp3</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>45524.73194444444</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>214</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>124.2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>440.7</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1438.6</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2348.3</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>3327.0</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>52.36</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0.019954</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0.123295</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1.192977</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
